--- a/ResultadoEleicoesDistritos/COIMBRA_CONDEIXA-A-NOVA.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_CONDEIXA-A-NOVA.xlsx
@@ -597,64 +597,64 @@
         <v>4383</v>
       </c>
       <c r="H2" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I2" t="n">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="J2" t="n">
-        <v>1873</v>
+        <v>1830</v>
       </c>
       <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33</v>
+      </c>
+      <c r="N2" t="n">
+        <v>303</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
         <v>5</v>
       </c>
-      <c r="L2" t="n">
-        <v>475</v>
-      </c>
-      <c r="M2" t="n">
-        <v>34</v>
-      </c>
-      <c r="N2" t="n">
-        <v>305</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>177</v>
+      </c>
+      <c r="T2" t="n">
+        <v>306</v>
+      </c>
+      <c r="U2" t="n">
+        <v>26</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2843</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2758</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4</v>
       </c>
-      <c r="R2" t="n">
-        <v>23</v>
-      </c>
-      <c r="S2" t="n">
-        <v>206</v>
-      </c>
-      <c r="T2" t="n">
-        <v>307</v>
-      </c>
-      <c r="U2" t="n">
-        <v>19</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2786</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8</v>
-      </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
